--- a/data/raw/data_raw_experiment_3_environment.xlsx
+++ b/data/raw/data_raw_experiment_3_environment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\2020_waste_bricks_for_restoration\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DFF1FD-81C5-42CA-B654-5257CE90A1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="2" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="155">
   <si>
     <t>brickRatio</t>
   </si>
@@ -493,12 +486,18 @@
   </si>
   <si>
     <t>substrate_13</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2020-04-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -552,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +575,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -889,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,10 +910,11 @@
     <col min="9" max="9" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="11.42578125" style="18"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>101</v>
       </c>
@@ -946,13 +948,14 @@
       <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
-        <v>43921</v>
+      <c r="B2" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>152</v>
@@ -982,12 +985,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="8">
-        <v>43921</v>
+      <c r="B3" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>152</v>
@@ -1017,12 +1020,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8">
-        <v>43923</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>152</v>
@@ -1037,27 +1040,27 @@
         <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
-        <v>9.5399999999999991</v>
+        <v>10.98</v>
       </c>
       <c r="I4" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="8">
-        <v>43921</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>152</v>
@@ -1075,24 +1078,24 @@
         <v>143</v>
       </c>
       <c r="H5" s="7">
-        <v>10.98</v>
+        <v>16.41</v>
       </c>
       <c r="I5" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="2">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8">
-        <v>43923</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>152</v>
@@ -1104,30 +1107,30 @@
         <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H6" s="7">
-        <v>12.97</v>
+        <v>5.7</v>
       </c>
       <c r="I6" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J6" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8">
-        <v>43921</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>152</v>
@@ -1139,13 +1142,13 @@
         <v>138</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H7" s="7">
-        <v>16.41</v>
+        <v>13.55</v>
       </c>
       <c r="I7" s="2">
         <v>14</v>
@@ -1157,12 +1160,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8">
-        <v>43921</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>152</v>
@@ -1177,10 +1180,10 @@
         <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
-        <v>5.7</v>
+        <v>5.99</v>
       </c>
       <c r="I8" s="2">
         <v>11</v>
@@ -1192,12 +1195,12 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8">
-        <v>43921</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>152</v>
@@ -1212,150 +1215,150 @@
         <v>142</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="7">
-        <v>13.55</v>
+        <v>7.04</v>
       </c>
       <c r="I9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="8">
-        <v>43923</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>10.72</v>
+        <v>7.15</v>
       </c>
       <c r="I10" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8">
-        <v>43921</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2">
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H11" s="7">
-        <v>5.99</v>
+        <v>14.7</v>
       </c>
       <c r="I11" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J11" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8">
-        <v>43921</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H12" s="7">
-        <v>7.04</v>
+        <v>5.46</v>
       </c>
       <c r="I12" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J12" s="16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K12" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8">
-        <v>43923</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D13" s="2">
         <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>14.74</v>
+        <v>7.58</v>
       </c>
       <c r="I13" s="2">
         <v>14</v>
@@ -1367,12 +1370,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8">
-        <v>43921</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>149</v>
@@ -1384,30 +1387,30 @@
         <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
-        <v>7.15</v>
+        <v>10.27</v>
       </c>
       <c r="I14" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8">
-        <v>43921</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>149</v>
@@ -1419,39 +1422,39 @@
         <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H15" s="7">
-        <v>14.7</v>
+        <v>10.53</v>
       </c>
       <c r="I15" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J15" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
-        <v>43921</v>
+        <v>40</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>141</v>
@@ -1460,42 +1463,42 @@
         <v>142</v>
       </c>
       <c r="H16" s="7">
-        <v>5.46</v>
+        <v>6.34</v>
       </c>
       <c r="I16" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" s="16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K16" s="2">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8">
-        <v>43923</v>
+        <v>41</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>2.2799999999999998</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="I17" s="2">
         <v>14</v>
@@ -1509,19 +1512,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="8">
-        <v>43923</v>
+        <v>43</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>141</v>
@@ -1530,208 +1533,208 @@
         <v>143</v>
       </c>
       <c r="H18" s="7">
-        <v>5.47</v>
+        <v>2.83</v>
       </c>
       <c r="I18" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J18" s="16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8">
-        <v>43923</v>
+        <v>46</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2">
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H19" s="7">
-        <v>5.0199999999999996</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K19" s="2">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8">
-        <v>43921</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2">
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
-        <v>7.58</v>
+        <v>7.31</v>
       </c>
       <c r="I20" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J20" s="16">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K20" s="2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="8">
-        <v>43921</v>
+        <v>52</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>10.27</v>
+        <v>11.03</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J21" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K21" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8">
-        <v>43923</v>
+        <v>55</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H22" s="7">
-        <v>6.91</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I22" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J22" s="16">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K22" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="8">
-        <v>43921</v>
+        <v>60</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
-        <v>10.53</v>
+        <v>9.44</v>
       </c>
       <c r="I23" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J23" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="8">
-        <v>43923</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D24" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>142</v>
@@ -1740,33 +1743,33 @@
         <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>6.63</v>
+        <v>7.02</v>
       </c>
       <c r="I24" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J24" s="16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K24" s="2">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="8">
-        <v>43923</v>
+        <v>63</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D25" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>142</v>
@@ -1775,33 +1778,33 @@
         <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>10.91</v>
+        <v>11.29</v>
       </c>
       <c r="I25" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K25" s="2">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="8">
-        <v>43923</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>141</v>
@@ -1810,217 +1813,217 @@
         <v>142</v>
       </c>
       <c r="H26" s="7">
-        <v>8.9</v>
+        <v>3.52</v>
       </c>
       <c r="I26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K26" s="2">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="8">
-        <v>43921</v>
+        <v>67</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7">
-        <v>6.34</v>
+        <v>4.87</v>
       </c>
       <c r="I27" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K27" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="8">
-        <v>43921</v>
+        <v>69</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D28" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
-        <v>4.5199999999999996</v>
+        <v>3.67</v>
       </c>
       <c r="I28" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J28" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K28" s="2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8">
-        <v>43923</v>
+        <v>70</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
-        <v>12.67</v>
+        <v>12.3</v>
       </c>
       <c r="I29" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J29" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K29" s="2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="8">
-        <v>43921</v>
+        <v>71</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D30" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H30" s="7">
-        <v>2.83</v>
+        <v>9.85</v>
       </c>
       <c r="I30" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="8">
-        <v>43923</v>
+        <v>73</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" s="7">
-        <v>7.28</v>
+        <v>11.83</v>
       </c>
       <c r="I31" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="8">
-        <v>43923</v>
+        <v>74</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
-        <v>6.01</v>
+        <v>7.51</v>
       </c>
       <c r="I32" s="2">
         <v>13</v>
@@ -2034,191 +2037,191 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="8">
-        <v>43921</v>
+        <v>75</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D33" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="7">
-        <v>17.190000000000001</v>
+        <v>8.27</v>
       </c>
       <c r="I33" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J33" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K33" s="2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="8">
-        <v>43923</v>
+        <v>76</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D34" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H34" s="7">
-        <v>14.02</v>
+        <v>3.05</v>
       </c>
       <c r="I34" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J34" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K34" s="2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="8">
-        <v>43923</v>
+        <v>78</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D35" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="7">
-        <v>15.85</v>
+        <v>4.54</v>
       </c>
       <c r="I35" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J35" s="16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K35" s="2">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="8">
-        <v>43921</v>
+        <v>82</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D36" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7">
-        <v>7.31</v>
+        <v>3.97</v>
       </c>
       <c r="I36" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J36" s="16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K36" s="2">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="8">
-        <v>43923</v>
+        <v>83</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D37" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H37" s="7">
-        <v>5.98</v>
+        <v>12.23</v>
       </c>
       <c r="I37" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J37" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="8">
-        <v>43923</v>
+        <v>85</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>139</v>
@@ -2230,30 +2233,30 @@
         <v>142</v>
       </c>
       <c r="H38" s="7">
-        <v>12.64</v>
+        <v>14.32</v>
       </c>
       <c r="I38" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J38" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K38" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="8">
-        <v>43921</v>
+        <v>17</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>138</v>
@@ -2265,30 +2268,30 @@
         <v>142</v>
       </c>
       <c r="H39" s="7">
-        <v>11.03</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="I39" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J39" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K39" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="8">
-        <v>43923</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>138</v>
@@ -2297,45 +2300,45 @@
         <v>141</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H40" s="7">
-        <v>5.36</v>
+        <v>12.97</v>
       </c>
       <c r="I40" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="2">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="8">
-        <v>43923</v>
+        <v>23</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D41" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H41" s="7">
-        <v>9.34</v>
+        <v>10.72</v>
       </c>
       <c r="I41" s="2">
         <v>12</v>
@@ -2349,54 +2352,54 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="8">
-        <v>43921</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="7">
-        <v>16.329999999999998</v>
+        <v>14.74</v>
       </c>
       <c r="I42" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J42" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K42" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8">
-        <v>43923</v>
+        <v>30</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>141</v>
@@ -2405,33 +2408,33 @@
         <v>143</v>
       </c>
       <c r="H43" s="7">
-        <v>9.1199999999999992</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I43" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J43" s="16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K43" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="8">
-        <v>43923</v>
+        <v>31</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>141</v>
@@ -2440,68 +2443,68 @@
         <v>143</v>
       </c>
       <c r="H44" s="7">
-        <v>7.07</v>
+        <v>5.47</v>
       </c>
       <c r="I44" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J44" s="16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K44" s="2">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="8">
-        <v>43923</v>
+        <v>32</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H45" s="7">
-        <v>10.8</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I45" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J45" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K45" s="2">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="8">
-        <v>43923</v>
+        <v>35</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>142</v>
@@ -2510,68 +2513,68 @@
         <v>143</v>
       </c>
       <c r="H46" s="7">
-        <v>17.36</v>
+        <v>6.91</v>
       </c>
       <c r="I46" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J46" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K46" s="2">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="8">
-        <v>43921</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="7">
-        <v>9.44</v>
+        <v>6.63</v>
       </c>
       <c r="I47" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J47" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K47" s="2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="8">
-        <v>43921</v>
+        <v>38</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>142</v>
@@ -2580,42 +2583,42 @@
         <v>142</v>
       </c>
       <c r="H48" s="7">
-        <v>7.02</v>
+        <v>10.91</v>
       </c>
       <c r="I48" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J48" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K48" s="2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="8">
-        <v>43923</v>
+        <v>39</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H49" s="7">
-        <v>13.66</v>
+        <v>8.9</v>
       </c>
       <c r="I49" s="2">
         <v>12</v>
@@ -2629,19 +2632,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="8">
-        <v>43921</v>
+        <v>42</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>142</v>
@@ -2650,488 +2653,488 @@
         <v>142</v>
       </c>
       <c r="H50" s="7">
-        <v>11.29</v>
+        <v>12.67</v>
       </c>
       <c r="I50" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K50" s="2">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="8">
-        <v>43921</v>
+        <v>44</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H51" s="7">
-        <v>3.52</v>
+        <v>7.28</v>
       </c>
       <c r="I51" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J51" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K51" s="2">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="8">
-        <v>43923</v>
+        <v>45</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H52" s="7">
-        <v>1.94</v>
+        <v>6.01</v>
       </c>
       <c r="I52" s="2">
+        <v>13</v>
+      </c>
+      <c r="J52" s="16">
         <v>7</v>
       </c>
-      <c r="J52" s="16">
-        <v>13</v>
-      </c>
       <c r="K52" s="2">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="8">
-        <v>43923</v>
+        <v>47</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H53" s="7">
-        <v>4.67</v>
+        <v>14.02</v>
       </c>
       <c r="I53" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J53" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K53" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="8">
-        <v>43921</v>
+        <v>48</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D54" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H54" s="7">
-        <v>4.87</v>
+        <v>15.85</v>
       </c>
       <c r="I54" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J54" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" s="2">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="8">
-        <v>43923</v>
+        <v>50</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D55" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" s="7">
-        <v>2.62</v>
+        <v>5.98</v>
       </c>
       <c r="I55" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J55" s="16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K55" s="2">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="8">
-        <v>43921</v>
+        <v>51</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="7">
-        <v>3.67</v>
+        <v>12.64</v>
       </c>
       <c r="I56" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J56" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K56" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="8">
-        <v>43921</v>
+        <v>53</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H57" s="7">
-        <v>12.3</v>
+        <v>5.36</v>
       </c>
       <c r="I57" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J57" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K57" s="2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="8">
-        <v>43921</v>
+        <v>54</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H58" s="7">
-        <v>9.85</v>
+        <v>9.34</v>
       </c>
       <c r="I58" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J58" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K58" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="8">
-        <v>43923</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H59" s="7">
-        <v>9.11</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I59" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J59" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K59" s="2">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="8">
-        <v>43921</v>
+        <v>57</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H60" s="7">
-        <v>11.83</v>
+        <v>7.07</v>
       </c>
       <c r="I60" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J60" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K60" s="2">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="8">
-        <v>43921</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H61" s="7">
-        <v>7.51</v>
+        <v>10.8</v>
       </c>
       <c r="I61" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J61" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K61" s="2">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="8">
-        <v>43921</v>
+        <v>59</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="2">
         <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>142</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H62" s="7">
-        <v>8.27</v>
+        <v>17.36</v>
       </c>
       <c r="I62" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="8">
-        <v>43921</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H63" s="7">
-        <v>3.05</v>
+        <v>13.66</v>
       </c>
       <c r="I63" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J63" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K63" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="8">
-        <v>43923</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D64" s="2">
         <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>141</v>
@@ -3140,33 +3143,33 @@
         <v>142</v>
       </c>
       <c r="H64" s="7">
-        <v>7.84</v>
+        <v>1.94</v>
       </c>
       <c r="I64" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J64" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K64" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="8">
-        <v>43921</v>
+        <v>66</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>141</v>
@@ -3175,33 +3178,33 @@
         <v>142</v>
       </c>
       <c r="H65" s="7">
-        <v>4.54</v>
+        <v>4.67</v>
       </c>
       <c r="I65" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J65" s="16">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K65" s="2">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="8">
-        <v>43923</v>
+        <v>68</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>141</v>
@@ -3210,59 +3213,59 @@
         <v>143</v>
       </c>
       <c r="H66" s="7">
-        <v>4.95</v>
+        <v>2.62</v>
       </c>
       <c r="I66" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J66" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K66" s="2">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="8">
-        <v>43923</v>
+        <v>72</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H67" s="7">
-        <v>4.96</v>
+        <v>9.11</v>
       </c>
       <c r="I67" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J67" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K67" s="2">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="8">
-        <v>43923</v>
+        <v>77</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>148</v>
@@ -3277,97 +3280,97 @@
         <v>141</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H68" s="7">
-        <v>3.21</v>
+        <v>7.84</v>
       </c>
       <c r="I68" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J68" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K68" s="2">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="8">
-        <v>43921</v>
+        <v>79</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H69" s="7">
-        <v>3.97</v>
+        <v>4.95</v>
       </c>
       <c r="I69" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J69" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K69" s="2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="8">
-        <v>43921</v>
+        <v>80</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H70" s="7">
-        <v>12.23</v>
+        <v>4.96</v>
       </c>
       <c r="I70" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J70" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K70" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="8">
-        <v>43923</v>
+        <v>81</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>148</v>
@@ -3379,30 +3382,30 @@
         <v>139</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>143</v>
       </c>
       <c r="H71" s="7">
-        <v>6.61</v>
+        <v>3.21</v>
       </c>
       <c r="I71" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J71" s="16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K71" s="2">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="8">
-        <v>43921</v>
+        <v>84</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>148</v>
@@ -3417,27 +3420,27 @@
         <v>142</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H72" s="7">
-        <v>14.32</v>
+        <v>6.61</v>
       </c>
       <c r="I72" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J72" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K72" s="2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="8">
-        <v>43923</v>
+      <c r="B73" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>148</v>
@@ -3732,8 +3735,8 @@
       <c r="H161" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G161">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K161">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3742,10 +3745,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
@@ -5449,7 +5452,7 @@
       <c r="U161"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q163">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5458,7 +5461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
